--- a/CORE/W1/Reports/FundPortfolio_admin.xlsx
+++ b/CORE/W1/Reports/FundPortfolio_admin.xlsx
@@ -821,7 +821,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1495,7 +1495,7 @@
         <v>35816440</v>
       </c>
       <c r="N31" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M31/J31)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="12">
@@ -1562,7 +1562,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1784,7 +1784,7 @@
         <v>-376030</v>
       </c>
       <c r="N12" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M12/J12)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O12" s="12">
@@ -2390,6 +2390,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3663,7 +3664,7 @@
         <v>-63357264203.034431</v>
       </c>
       <c r="L38" s="2" t="e">
-        <f>=(K0/H0)*100</f>
+        <f>=(K38/H38)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="M38" s="12">
@@ -4041,7 +4042,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4574,7 +4575,7 @@
         <v>-88139000</v>
       </c>
       <c r="N28" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M28/J28)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O28" s="12">
@@ -4801,7 +4802,7 @@
         <v>121533750</v>
       </c>
       <c r="N41" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M41/J41)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O41" s="12">
@@ -5075,7 +5076,7 @@
         <v>-2898200000</v>
       </c>
       <c r="N55" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M55/J55)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O55" s="12">
@@ -5165,7 +5166,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -5481,7 +5482,7 @@
         <v>849959950</v>
       </c>
       <c r="N14" s="2" t="e">
-        <f>=(M0/J0)*100</f>
+        <f>=(M14/J14)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="O14" s="12">
@@ -5514,7 +5515,7 @@
   </mergeCells>
   <pageSetup fitToWidth="1" fitToHeight="0"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;8 Time : 05/Jan/2021 05:57:34&amp;RPage &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;8 Time : 06/Jan/2021 03:57:55&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="16" max="1048575" man="1"/>
